--- a/MizitoAdder/ImportTemplate.xlsx
+++ b/MizitoAdder/ImportTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asadi-PC\Desktop\Mizito-Adder\MizitoAdder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DBD21A-956E-4BB5-8F25-7C2055D2DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DEAF02-6296-4822-8492-34213EBFBC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>نام مشتری</t>
   </si>
@@ -79,13 +79,28 @@
   </si>
   <si>
     <t>تلفن ثابت نماینده</t>
+  </si>
+  <si>
+    <t>میلاد</t>
+  </si>
+  <si>
+    <t>09117449565</t>
+  </si>
+  <si>
+    <t>بهزاد</t>
+  </si>
+  <si>
+    <t>لایت کمپانی</t>
+  </si>
+  <si>
+    <t>1144446044</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,6 +127,10 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Shabnam"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,13 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -550,14 +570,35 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="P2" s="5"/>
     </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9121487297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/MizitoAdder/ImportTemplate.xlsx
+++ b/MizitoAdder/ImportTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asadi-PC\Desktop\Mizito-Adder\MizitoAdder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DEAF02-6296-4822-8492-34213EBFBC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD45B9-CD6B-44A1-B18A-CD8E6A4E1047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>نام مشتری</t>
   </si>
@@ -79,21 +79,6 @@
   </si>
   <si>
     <t>تلفن ثابت نماینده</t>
-  </si>
-  <si>
-    <t>میلاد</t>
-  </si>
-  <si>
-    <t>09117449565</t>
-  </si>
-  <si>
-    <t>بهزاد</t>
-  </si>
-  <si>
-    <t>لایت کمپانی</t>
-  </si>
-  <si>
-    <t>1144446044</t>
   </si>
 </sst>
 </file>
@@ -494,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -570,31 +555,13 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6">
-        <v>9121487297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
